--- a/data/trans_orig/q27a-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F86C65-EFD3-4661-8C68-3FBB3837F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFC31EE-F1D1-4BDA-B9CD-F6DE623FA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF10C177-10DD-439C-96DE-053AB61B20DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0DF2A8-82AF-4462-8A10-C675721E3FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="235">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,67 +86,67 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>13,54%</t>
+    <t>14,07%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>5,92%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,10 +164,10 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -176,535 +176,547 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>69,55%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>20,67%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,5%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,18%</t>
+    <t>70,91%</t>
   </si>
   <si>
     <t>76,95%</t>
@@ -713,19 +725,19 @@
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8584C0-21C5-45CD-821A-DEBD77B7AABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AB32A-032E-4FAB-8E74-A4E0B57F7AD6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2260,7 +2272,7 @@
         <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2269,10 +2281,10 @@
         <v>3750</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>124</v>
@@ -2293,10 +2305,10 @@
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2305,13 +2317,13 @@
         <v>12938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2320,13 +2332,13 @@
         <v>17860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2353,13 @@
         <v>45659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -2356,13 +2368,13 @@
         <v>34527</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2371,13 +2383,13 @@
         <v>80186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2404,13 @@
         <v>137361</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>173</v>
@@ -2407,13 +2419,13 @@
         <v>169707</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>301</v>
@@ -2422,13 +2434,13 @@
         <v>307068</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2496,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2502,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2511,13 +2523,13 @@
         <v>1859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2526,13 +2538,13 @@
         <v>1859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,10 +2559,10 @@
         <v>6197</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>159</v>
@@ -2562,13 +2574,13 @@
         <v>4866</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2577,13 +2589,13 @@
         <v>11063</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2610,13 @@
         <v>13796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2613,13 +2625,13 @@
         <v>18093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -2628,13 +2640,13 @@
         <v>31889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2661,13 @@
         <v>50697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
         <v>69</v>
@@ -2664,13 +2676,13 @@
         <v>72096</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -2679,13 +2691,13 @@
         <v>122793</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2712,13 @@
         <v>170645</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
@@ -2715,13 +2727,13 @@
         <v>256877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>426</v>
@@ -2730,13 +2742,13 @@
         <v>427521</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2819,13 +2831,13 @@
         <v>2836</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -2834,13 +2846,13 @@
         <v>2836</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2867,13 @@
         <v>8038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -2870,13 +2882,13 @@
         <v>17683</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -2885,13 +2897,13 @@
         <v>25721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2918,13 @@
         <v>36253</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -2921,13 +2933,13 @@
         <v>53852</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>89</v>
@@ -2936,13 +2948,13 @@
         <v>90105</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2969,13 @@
         <v>182131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>207</v>
@@ -2972,13 +2984,13 @@
         <v>210181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>387</v>
@@ -2987,13 +2999,13 @@
         <v>392312</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3020,13 @@
         <v>645667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>841</v>
@@ -3023,13 +3035,13 @@
         <v>859294</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>1469</v>
@@ -3038,13 +3050,13 @@
         <v>1504962</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3112,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFC31EE-F1D1-4BDA-B9CD-F6DE623FA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6095D5-7AAD-4629-9F7E-C007D4287849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0DF2A8-82AF-4462-8A10-C675721E3FE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B81E1AC-0DBC-4E06-9281-A095CECA2F51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,546 +86,546 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>11,5%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
@@ -638,106 +638,97 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>6,04%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1152,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AB32A-032E-4FAB-8E74-A4E0B57F7AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F201AB88-0070-4258-95CF-DAD85CC85700}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,10 +2260,10 @@
         <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2281,10 +2272,10 @@
         <v>3750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>124</v>
@@ -2335,10 +2326,10 @@
         <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2344,13 @@
         <v>45659</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -2368,13 +2359,13 @@
         <v>34527</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2383,13 +2374,13 @@
         <v>80186</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2395,13 @@
         <v>137361</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>173</v>
@@ -2419,13 +2410,13 @@
         <v>169707</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>301</v>
@@ -2434,13 +2425,13 @@
         <v>307068</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2487,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2514,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2523,13 +2514,13 @@
         <v>1859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2538,13 +2529,13 @@
         <v>1859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2550,10 @@
         <v>6197</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>159</v>
@@ -2613,10 +2604,10 @@
         <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2625,10 +2616,10 @@
         <v>18093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>170</v>
@@ -2885,10 +2876,10 @@
         <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -2897,13 +2888,13 @@
         <v>25721</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2909,13 @@
         <v>36253</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -2933,13 +2924,13 @@
         <v>53852</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>89</v>
@@ -2948,13 +2939,13 @@
         <v>90105</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2960,13 @@
         <v>182131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>207</v>
@@ -2984,13 +2975,13 @@
         <v>210181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>387</v>
@@ -2999,13 +2990,13 @@
         <v>392312</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3011,13 @@
         <v>645667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>841</v>
@@ -3035,13 +3026,13 @@
         <v>859294</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>1469</v>
@@ -3050,13 +3041,13 @@
         <v>1504962</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3103,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6095D5-7AAD-4629-9F7E-C007D4287849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B6DFFC-C0EA-4B41-A62E-BB4978EB3F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B81E1AC-0DBC-4E06-9281-A095CECA2F51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{367D5B82-6C17-48BA-AA81-D260B0E841D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="231">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,649 +86,646 @@
     <t>2,62%</t>
   </si>
   <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>17,5%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F201AB88-0070-4258-95CF-DAD85CC85700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C947F-BBF9-492B-B975-9FF8339B5A5F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2260,7 +2257,7 @@
         <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>122</v>
@@ -2296,10 +2293,10 @@
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2308,13 +2305,13 @@
         <v>12938</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2323,10 +2320,10 @@
         <v>17860</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>132</v>
@@ -2565,13 +2562,13 @@
         <v>4866</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2580,13 +2577,13 @@
         <v>11063</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2598,13 @@
         <v>13796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2616,13 +2613,13 @@
         <v>18093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -2631,13 +2628,13 @@
         <v>31889</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2649,13 @@
         <v>50697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>69</v>
@@ -2667,13 +2664,13 @@
         <v>72096</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -2682,13 +2679,13 @@
         <v>122793</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2700,13 @@
         <v>170645</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
@@ -2718,13 +2715,13 @@
         <v>256877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>426</v>
@@ -2733,13 +2730,13 @@
         <v>427521</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2822,13 +2819,13 @@
         <v>2836</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -2837,13 +2834,13 @@
         <v>2836</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2855,13 @@
         <v>8038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -2873,13 +2870,13 @@
         <v>17683</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -2888,13 +2885,13 @@
         <v>25721</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2906,13 @@
         <v>36253</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -2924,10 +2921,10 @@
         <v>53852</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>210</v>
@@ -2942,10 +2939,10 @@
         <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2957,13 @@
         <v>182131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>207</v>
@@ -2975,7 +2972,7 @@
         <v>210181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>217</v>
@@ -2996,7 +2993,7 @@
         <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3008,13 @@
         <v>645667</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>841</v>
@@ -3026,13 +3023,13 @@
         <v>859294</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>1469</v>
@@ -3041,13 +3038,13 @@
         <v>1504962</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3100,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B6DFFC-C0EA-4B41-A62E-BB4978EB3F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3C3789-5587-43B2-8010-94B4AC3488F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{367D5B82-6C17-48BA-AA81-D260B0E841D5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E468E36D-0FDA-4052-99D7-1B4E4405512E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="208">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -74,631 +74,562 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
   </si>
   <si>
     <t>74,04%</t>
@@ -1140,8 +1071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C947F-BBF9-492B-B975-9FF8339B5A5F}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB12CC3-C8A3-4297-B01B-843111E3E815}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1324,34 +1255,34 @@
         <v>12</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2892</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1291,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>992</v>
+        <v>5886</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>7048</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7">
         <v>13</v>
       </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
       <c r="N6" s="7">
-        <v>992</v>
+        <v>12934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1342,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>7525</v>
+        <v>29802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>3411</v>
+        <v>53121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>10936</v>
+        <v>82922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1393,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>29418</v>
+        <v>144938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>32414</v>
+        <v>170643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="N8" s="7">
-        <v>61831</v>
+        <v>315581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,54 +1444,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="D9" s="7">
-        <v>37935</v>
+        <v>180625</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="I9" s="7">
-        <v>35825</v>
+        <v>233704</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="N9" s="7">
-        <v>73759</v>
+        <v>414329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1578,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1593,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1608,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1548,49 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>2892</v>
+        <v>6987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>2892</v>
+        <v>8016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1599,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>4894</v>
+        <v>11650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>7048</v>
+        <v>15773</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>11942</v>
+        <v>27423</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1650,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>22277</v>
+        <v>55973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>49710</v>
+        <v>50438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>71987</v>
+        <v>106411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1701,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>115520</v>
+        <v>192724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="I14" s="7">
-        <v>138230</v>
+        <v>262067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="N14" s="7">
-        <v>253750</v>
+        <v>454791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,54 +1752,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="D15" s="7">
-        <v>142690</v>
+        <v>261376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>197880</v>
+        <v>335265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="N15" s="7">
-        <v>340570</v>
+        <v>596642</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1886,37 +1817,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,46 +1859,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1029</v>
+        <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>6987</v>
+        <v>2938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>8016</v>
+        <v>3750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1907,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>11650</v>
+        <v>4922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>15773</v>
+        <v>12938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>27423</v>
+        <v>17860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +1958,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>55973</v>
+        <v>45659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>50438</v>
+        <v>34527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N19" s="7">
-        <v>106411</v>
+        <v>80186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,49 +2009,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>192724</v>
+        <v>137361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="I20" s="7">
-        <v>262067</v>
+        <v>169707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="N20" s="7">
-        <v>454791</v>
+        <v>307068</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,54 +2060,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D21" s="7">
-        <v>261376</v>
+        <v>188754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="I21" s="7">
-        <v>335265</v>
+        <v>221086</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>563</v>
+        <v>406</v>
       </c>
       <c r="N21" s="7">
-        <v>596642</v>
+        <v>409840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2194,37 +2125,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>976</v>
+        <v>1859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>976</v>
+        <v>1859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2164,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>812</v>
+        <v>6197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>2938</v>
+        <v>4866</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N23" s="7">
-        <v>3750</v>
+        <v>11063</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,49 +2215,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>4922</v>
+        <v>13796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>12938</v>
+        <v>18093</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>17860</v>
+        <v>31889</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,49 +2266,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7">
-        <v>45659</v>
+        <v>50697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>34527</v>
+        <v>72096</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="N25" s="7">
-        <v>80186</v>
+        <v>122793</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,49 +2317,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="D26" s="7">
-        <v>137361</v>
+        <v>170645</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="I26" s="7">
-        <v>169707</v>
+        <v>256877</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="N26" s="7">
-        <v>307068</v>
+        <v>427521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,54 +2368,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D27" s="7">
-        <v>188754</v>
+        <v>241334</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="I27" s="7">
-        <v>221086</v>
+        <v>353791</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
-        <v>406</v>
+        <v>594</v>
       </c>
       <c r="N27" s="7">
-        <v>409840</v>
+        <v>595125</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2502,37 +2433,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>1859</v>
+        <v>2836</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1859</v>
+        <v>2836</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,49 +2472,49 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>6197</v>
+        <v>8038</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I29" s="7">
-        <v>4866</v>
+        <v>17683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N29" s="7">
-        <v>11063</v>
+        <v>25721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,49 +2523,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>13796</v>
+        <v>36253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I30" s="7">
-        <v>18093</v>
+        <v>53852</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M30" s="7">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="N30" s="7">
-        <v>31889</v>
+        <v>90105</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,49 +2574,49 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="D31" s="7">
-        <v>50697</v>
+        <v>182131</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="I31" s="7">
-        <v>72096</v>
+        <v>210181</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="N31" s="7">
-        <v>122793</v>
+        <v>392312</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,49 +2625,49 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <v>180</v>
+        <v>628</v>
       </c>
       <c r="D32" s="7">
-        <v>170645</v>
+        <v>645667</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
-        <v>246</v>
+        <v>841</v>
       </c>
       <c r="I32" s="7">
-        <v>256877</v>
+        <v>859294</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
-        <v>426</v>
+        <v>1469</v>
       </c>
       <c r="N32" s="7">
-        <v>427521</v>
+        <v>1504962</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,370 +2676,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>256</v>
+        <v>854</v>
       </c>
       <c r="D33" s="7">
-        <v>241334</v>
+        <v>872089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>338</v>
+        <v>1121</v>
       </c>
       <c r="I33" s="7">
-        <v>353791</v>
+        <v>1143847</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>594</v>
+        <v>1975</v>
       </c>
       <c r="N33" s="7">
-        <v>595125</v>
+        <v>2015936</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2836</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2836</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7">
-        <v>8038</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="7">
-        <v>18</v>
-      </c>
-      <c r="I35" s="7">
-        <v>17683</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M35" s="7">
-        <v>27</v>
-      </c>
-      <c r="N35" s="7">
-        <v>25721</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5">
-        <v>3</v>
-      </c>
-      <c r="C36" s="7">
-        <v>37</v>
-      </c>
-      <c r="D36" s="7">
-        <v>36253</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="A34" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="7">
-        <v>52</v>
-      </c>
-      <c r="I36" s="7">
-        <v>53852</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M36" s="7">
-        <v>89</v>
-      </c>
-      <c r="N36" s="7">
-        <v>90105</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5">
-        <v>2</v>
-      </c>
-      <c r="C37" s="7">
-        <v>180</v>
-      </c>
-      <c r="D37" s="7">
-        <v>182131</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" s="7">
-        <v>207</v>
-      </c>
-      <c r="I37" s="7">
-        <v>210181</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M37" s="7">
-        <v>387</v>
-      </c>
-      <c r="N37" s="7">
-        <v>392312</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7">
-        <v>628</v>
-      </c>
-      <c r="D38" s="7">
-        <v>645667</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H38" s="7">
-        <v>841</v>
-      </c>
-      <c r="I38" s="7">
-        <v>859294</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1469</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1504962</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>854</v>
-      </c>
-      <c r="D39" s="7">
-        <v>872089</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1121</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1143847</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1975</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2015936</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>230</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
